--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.056541</v>
+        <v>0.6654429999999999</v>
       </c>
       <c r="H2">
-        <v>3.169623</v>
+        <v>1.996329</v>
       </c>
       <c r="I2">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132212</v>
       </c>
       <c r="J2">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132213</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>180.2684326666667</v>
+        <v>155.8020323333334</v>
       </c>
       <c r="N2">
-        <v>540.805298</v>
+        <v>467.406097</v>
       </c>
       <c r="O2">
-        <v>0.4185009648140325</v>
+        <v>0.376400502549802</v>
       </c>
       <c r="P2">
-        <v>0.4185009648140325</v>
+        <v>0.3764005025498019</v>
       </c>
       <c r="Q2">
-        <v>190.4609901180727</v>
+        <v>103.6773718019903</v>
       </c>
       <c r="R2">
-        <v>1714.148911062654</v>
+        <v>933.096346217913</v>
       </c>
       <c r="S2">
-        <v>0.01490751897044007</v>
+        <v>0.007452016562875249</v>
       </c>
       <c r="T2">
-        <v>0.01490751897044007</v>
+        <v>0.007452016562875249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.056541</v>
+        <v>0.6654429999999999</v>
       </c>
       <c r="H3">
-        <v>3.169623</v>
+        <v>1.996329</v>
       </c>
       <c r="I3">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132212</v>
       </c>
       <c r="J3">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132213</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>540.968337</v>
       </c>
       <c r="O3">
-        <v>0.418627132177878</v>
+        <v>0.4356399183007033</v>
       </c>
       <c r="P3">
-        <v>0.4186271321778779</v>
+        <v>0.4356399183007033</v>
       </c>
       <c r="Q3">
-        <v>190.518409247439</v>
+        <v>119.994531026097</v>
       </c>
       <c r="R3">
-        <v>1714.665683226951</v>
+        <v>1079.950779234873</v>
       </c>
       <c r="S3">
-        <v>0.01491201320708015</v>
+        <v>0.008624844718949138</v>
       </c>
       <c r="T3">
-        <v>0.01491201320708015</v>
+        <v>0.008624844718949139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.056541</v>
+        <v>0.6654429999999999</v>
       </c>
       <c r="H4">
-        <v>3.169623</v>
+        <v>1.996329</v>
       </c>
       <c r="I4">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132212</v>
       </c>
       <c r="J4">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132213</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.375574333333334</v>
+        <v>10.79259366666667</v>
       </c>
       <c r="N4">
-        <v>16.126723</v>
+        <v>32.377781</v>
       </c>
       <c r="O4">
-        <v>0.01247962836116419</v>
+        <v>0.02607371430982302</v>
       </c>
       <c r="P4">
-        <v>0.01247962836116419</v>
+        <v>0.02607371430982302</v>
       </c>
       <c r="Q4">
-        <v>5.679514681714333</v>
+        <v>7.181855907327666</v>
       </c>
       <c r="R4">
-        <v>51.115632135429</v>
+        <v>64.63670316594899</v>
       </c>
       <c r="S4">
-        <v>0.0004445397076223396</v>
+        <v>0.0005162101261189742</v>
       </c>
       <c r="T4">
-        <v>0.0004445397076223395</v>
+        <v>0.0005162101261189742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.056541</v>
+        <v>0.6654429999999999</v>
       </c>
       <c r="H5">
-        <v>3.169623</v>
+        <v>1.996329</v>
       </c>
       <c r="I5">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132212</v>
       </c>
       <c r="J5">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132213</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.81169166666666</v>
+        <v>53.06048966666666</v>
       </c>
       <c r="N5">
-        <v>167.435075</v>
+        <v>159.181469</v>
       </c>
       <c r="O5">
-        <v>0.129569256607412</v>
+        <v>0.1281882827647747</v>
       </c>
       <c r="P5">
-        <v>0.1295692566074119</v>
+        <v>0.1281882827647747</v>
       </c>
       <c r="Q5">
-        <v>58.96734052519166</v>
+        <v>35.30873142525566</v>
       </c>
       <c r="R5">
-        <v>530.7060647267249</v>
+        <v>317.778582827301</v>
       </c>
       <c r="S5">
-        <v>0.004615416243351144</v>
+        <v>0.002537885044941578</v>
       </c>
       <c r="T5">
-        <v>0.004615416243351143</v>
+        <v>0.002537885044941578</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.056541</v>
+        <v>0.6654429999999999</v>
       </c>
       <c r="H6">
-        <v>3.169623</v>
+        <v>1.996329</v>
       </c>
       <c r="I6">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132212</v>
       </c>
       <c r="J6">
-        <v>0.03562122963578939</v>
+        <v>0.01979810471132213</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.969472333333334</v>
+        <v>13.94831233333333</v>
       </c>
       <c r="N6">
-        <v>26.908417</v>
+        <v>41.844937</v>
       </c>
       <c r="O6">
-        <v>0.02082301803951321</v>
+        <v>0.03369758207489706</v>
       </c>
       <c r="P6">
-        <v>0.02082301803951321</v>
+        <v>0.03369758207489706</v>
       </c>
       <c r="Q6">
-        <v>9.476615268532333</v>
+        <v>9.281806804030332</v>
       </c>
       <c r="R6">
-        <v>85.28953741679101</v>
+        <v>83.53626123627299</v>
       </c>
       <c r="S6">
-        <v>0.000741741507295685</v>
+        <v>0.0006671482584371835</v>
       </c>
       <c r="T6">
-        <v>0.0007417415072956849</v>
+        <v>0.0006671482584371837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>73.317104</v>
       </c>
       <c r="I7">
-        <v>0.8239608930825695</v>
+        <v>0.7271044512817749</v>
       </c>
       <c r="J7">
-        <v>0.8239608930825695</v>
+        <v>0.727104451281775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.2684326666667</v>
+        <v>155.8020323333334</v>
       </c>
       <c r="N7">
-        <v>540.805298</v>
+        <v>467.406097</v>
       </c>
       <c r="O7">
-        <v>0.4185009648140325</v>
+        <v>0.376400502549802</v>
       </c>
       <c r="P7">
-        <v>0.4185009648140325</v>
+        <v>0.3764005025498019</v>
       </c>
       <c r="Q7">
-        <v>4405.586475246332</v>
+        <v>3807.651269331455</v>
       </c>
       <c r="R7">
-        <v>39650.27827721699</v>
+        <v>34268.86142398309</v>
       </c>
       <c r="S7">
-        <v>0.3448284287240873</v>
+        <v>0.2736824808686581</v>
       </c>
       <c r="T7">
-        <v>0.3448284287240872</v>
+        <v>0.2736824808686581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>73.317104</v>
       </c>
       <c r="I8">
-        <v>0.8239608930825695</v>
+        <v>0.7271044512817749</v>
       </c>
       <c r="J8">
-        <v>0.8239608930825695</v>
+        <v>0.727104451281775</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>540.968337</v>
       </c>
       <c r="O8">
-        <v>0.418627132177878</v>
+        <v>0.4356399183007033</v>
       </c>
       <c r="P8">
-        <v>0.4186271321778779</v>
+        <v>0.4356399183007033</v>
       </c>
       <c r="Q8">
         <v>4406.914647170672</v>
@@ -948,10 +948,10 @@
         <v>39662.23182453605</v>
       </c>
       <c r="S8">
-        <v>0.3449323856978792</v>
+        <v>0.3167557237524701</v>
       </c>
       <c r="T8">
-        <v>0.3449323856978792</v>
+        <v>0.3167557237524701</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>73.317104</v>
       </c>
       <c r="I9">
-        <v>0.8239608930825695</v>
+        <v>0.7271044512817749</v>
       </c>
       <c r="J9">
-        <v>0.8239608930825695</v>
+        <v>0.727104451281775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.375574333333334</v>
+        <v>10.79259366666667</v>
       </c>
       <c r="N9">
-        <v>16.126723</v>
+        <v>32.377781</v>
       </c>
       <c r="O9">
-        <v>0.01247962836116419</v>
+        <v>0.02607371430982302</v>
       </c>
       <c r="P9">
-        <v>0.01247962836116419</v>
+        <v>0.02607371430982302</v>
       </c>
       <c r="Q9">
-        <v>131.3738474855769</v>
+        <v>263.7605707629138</v>
       </c>
       <c r="R9">
-        <v>1182.364627370192</v>
+        <v>2373.845136866224</v>
       </c>
       <c r="S9">
-        <v>0.01028272572980341</v>
+        <v>0.01895831373612163</v>
       </c>
       <c r="T9">
-        <v>0.01028272572980341</v>
+        <v>0.01895831373612163</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>73.317104</v>
       </c>
       <c r="I10">
-        <v>0.8239608930825695</v>
+        <v>0.7271044512817749</v>
       </c>
       <c r="J10">
-        <v>0.8239608930825695</v>
+        <v>0.727104451281775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>55.81169166666666</v>
+        <v>53.06048966666666</v>
       </c>
       <c r="N10">
-        <v>167.435075</v>
+        <v>159.181469</v>
       </c>
       <c r="O10">
-        <v>0.129569256607412</v>
+        <v>0.1281882827647747</v>
       </c>
       <c r="P10">
-        <v>0.1295692566074119</v>
+        <v>0.1281882827647747</v>
       </c>
       <c r="Q10">
-        <v>1363.983867446978</v>
+        <v>1296.747146393975</v>
       </c>
       <c r="R10">
-        <v>12275.8548070228</v>
+        <v>11670.72431754578</v>
       </c>
       <c r="S10">
-        <v>0.1067600003902878</v>
+        <v>0.09320627100043449</v>
       </c>
       <c r="T10">
-        <v>0.1067600003902878</v>
+        <v>0.09320627100043451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>73.317104</v>
       </c>
       <c r="I11">
-        <v>0.8239608930825695</v>
+        <v>0.7271044512817749</v>
       </c>
       <c r="J11">
-        <v>0.8239608930825695</v>
+        <v>0.727104451281775</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.969472333333334</v>
+        <v>13.94831233333333</v>
       </c>
       <c r="N11">
-        <v>26.908417</v>
+        <v>41.844937</v>
       </c>
       <c r="O11">
-        <v>0.02082301803951321</v>
+        <v>0.03369758207489706</v>
       </c>
       <c r="P11">
-        <v>0.02082301803951321</v>
+        <v>0.03369758207489706</v>
       </c>
       <c r="Q11">
-        <v>219.2052452960409</v>
+        <v>340.8832886558276</v>
       </c>
       <c r="R11">
-        <v>1972.847207664368</v>
+        <v>3067.949597902448</v>
       </c>
       <c r="S11">
-        <v>0.01715735254051176</v>
+        <v>0.0245016619240906</v>
       </c>
       <c r="T11">
-        <v>0.01715735254051176</v>
+        <v>0.02450166192409061</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.029152</v>
+        <v>8.477506666666667</v>
       </c>
       <c r="H12">
-        <v>12.087456</v>
+        <v>25.43252</v>
       </c>
       <c r="I12">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916614</v>
       </c>
       <c r="J12">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916615</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>180.2684326666667</v>
+        <v>155.8020323333334</v>
       </c>
       <c r="N12">
-        <v>540.805298</v>
+        <v>467.406097</v>
       </c>
       <c r="O12">
-        <v>0.4185009648140325</v>
+        <v>0.376400502549802</v>
       </c>
       <c r="P12">
-        <v>0.4185009648140325</v>
+        <v>0.3764005025498019</v>
       </c>
       <c r="Q12">
-        <v>726.3289160157652</v>
+        <v>1320.812767786049</v>
       </c>
       <c r="R12">
-        <v>6536.960244141887</v>
+        <v>11887.31491007444</v>
       </c>
       <c r="S12">
-        <v>0.05685028775484013</v>
+        <v>0.0949360352304936</v>
       </c>
       <c r="T12">
-        <v>0.05685028775484012</v>
+        <v>0.0949360352304936</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.029152</v>
+        <v>8.477506666666667</v>
       </c>
       <c r="H13">
-        <v>12.087456</v>
+        <v>25.43252</v>
       </c>
       <c r="I13">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916614</v>
       </c>
       <c r="J13">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916615</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>540.968337</v>
       </c>
       <c r="O13">
-        <v>0.418627132177878</v>
+        <v>0.4356399183007033</v>
       </c>
       <c r="P13">
-        <v>0.4186271321778779</v>
+        <v>0.4356399183007033</v>
       </c>
       <c r="Q13">
-        <v>726.547885653408</v>
+        <v>1528.68756112436</v>
       </c>
       <c r="R13">
-        <v>6538.930970880672</v>
+        <v>13758.18805011924</v>
       </c>
       <c r="S13">
-        <v>0.0568674266661998</v>
+        <v>0.1098774479615175</v>
       </c>
       <c r="T13">
-        <v>0.05686742666619979</v>
+        <v>0.1098774479615176</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.029152</v>
+        <v>8.477506666666667</v>
       </c>
       <c r="H14">
-        <v>12.087456</v>
+        <v>25.43252</v>
       </c>
       <c r="I14">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916614</v>
       </c>
       <c r="J14">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916615</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.375574333333334</v>
+        <v>10.79259366666667</v>
       </c>
       <c r="N14">
-        <v>16.126723</v>
+        <v>32.377781</v>
       </c>
       <c r="O14">
-        <v>0.01247962836116419</v>
+        <v>0.02607371430982302</v>
       </c>
       <c r="P14">
-        <v>0.01247962836116419</v>
+        <v>0.02607371430982302</v>
       </c>
       <c r="Q14">
-        <v>21.65900607629867</v>
+        <v>91.49428475979111</v>
       </c>
       <c r="R14">
-        <v>194.931054686688</v>
+        <v>823.44856283812</v>
       </c>
       <c r="S14">
-        <v>0.001695266016222716</v>
+        <v>0.006576333037652279</v>
       </c>
       <c r="T14">
-        <v>0.001695266016222716</v>
+        <v>0.00657633303765228</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.029152</v>
+        <v>8.477506666666667</v>
       </c>
       <c r="H15">
-        <v>12.087456</v>
+        <v>25.43252</v>
       </c>
       <c r="I15">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916614</v>
       </c>
       <c r="J15">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916615</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>55.81169166666666</v>
+        <v>53.06048966666666</v>
       </c>
       <c r="N15">
-        <v>167.435075</v>
+        <v>159.181469</v>
       </c>
       <c r="O15">
-        <v>0.129569256607412</v>
+        <v>0.1281882827647747</v>
       </c>
       <c r="P15">
-        <v>0.1295692566074119</v>
+        <v>0.1281882827647747</v>
       </c>
       <c r="Q15">
-        <v>224.8737891021333</v>
+        <v>449.8206548857644</v>
       </c>
       <c r="R15">
-        <v>2023.8641019192</v>
+        <v>4048.38589397188</v>
       </c>
       <c r="S15">
-        <v>0.01760103354979196</v>
+        <v>0.03233175101056869</v>
       </c>
       <c r="T15">
-        <v>0.01760103354979196</v>
+        <v>0.0323317510105687</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.029152</v>
+        <v>8.477506666666667</v>
       </c>
       <c r="H16">
-        <v>12.087456</v>
+        <v>25.43252</v>
       </c>
       <c r="I16">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916614</v>
       </c>
       <c r="J16">
-        <v>0.135842668320018</v>
+        <v>0.2522207982916615</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.969472333333334</v>
+        <v>13.94831233333333</v>
       </c>
       <c r="N16">
-        <v>26.908417</v>
+        <v>41.844937</v>
       </c>
       <c r="O16">
-        <v>0.02082301803951321</v>
+        <v>0.03369758207489706</v>
       </c>
       <c r="P16">
-        <v>0.02082301803951321</v>
+        <v>0.03369758207489706</v>
       </c>
       <c r="Q16">
-        <v>36.13936739079467</v>
+        <v>118.2469107945822</v>
       </c>
       <c r="R16">
-        <v>325.254306517152</v>
+        <v>1064.22219715124</v>
       </c>
       <c r="S16">
-        <v>0.002828654332963344</v>
+        <v>0.008499231051429319</v>
       </c>
       <c r="T16">
-        <v>0.002828654332963343</v>
+        <v>0.00849923105142932</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1357026666666667</v>
+        <v>0.02946533333333333</v>
       </c>
       <c r="H17">
-        <v>0.407108</v>
+        <v>0.088396</v>
       </c>
       <c r="I17">
-        <v>0.004575208961623179</v>
+        <v>0.0008766457152413409</v>
       </c>
       <c r="J17">
-        <v>0.00457520896162318</v>
+        <v>0.000876645715241341</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>180.2684326666667</v>
+        <v>155.8020323333334</v>
       </c>
       <c r="N17">
-        <v>540.805298</v>
+        <v>467.406097</v>
       </c>
       <c r="O17">
-        <v>0.4185009648140325</v>
+        <v>0.376400502549802</v>
       </c>
       <c r="P17">
-        <v>0.4185009648140325</v>
+        <v>0.3764005025498019</v>
       </c>
       <c r="Q17">
-        <v>24.46290702868711</v>
+        <v>4.590758816712445</v>
       </c>
       <c r="R17">
-        <v>220.166163258184</v>
+        <v>41.31682935041201</v>
       </c>
       <c r="S17">
-        <v>0.001914729364665109</v>
+        <v>0.0003299698877749713</v>
       </c>
       <c r="T17">
-        <v>0.001914729364665109</v>
+        <v>0.0003299698877749713</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1357026666666667</v>
+        <v>0.02946533333333333</v>
       </c>
       <c r="H18">
-        <v>0.407108</v>
+        <v>0.088396</v>
       </c>
       <c r="I18">
-        <v>0.004575208961623179</v>
+        <v>0.0008766457152413409</v>
       </c>
       <c r="J18">
-        <v>0.00457520896162318</v>
+        <v>0.000876645715241341</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>540.968337</v>
       </c>
       <c r="O18">
-        <v>0.418627132177878</v>
+        <v>0.4356399183007033</v>
       </c>
       <c r="P18">
-        <v>0.4186271321778779</v>
+        <v>0.4356399183007033</v>
       </c>
       <c r="Q18">
-        <v>24.470281971044</v>
+        <v>5.313270790828</v>
       </c>
       <c r="R18">
-        <v>220.232537739396</v>
+        <v>47.819437117452</v>
       </c>
       <c r="S18">
-        <v>0.001915306606718839</v>
+        <v>0.0003819018677663993</v>
       </c>
       <c r="T18">
-        <v>0.001915306606718839</v>
+        <v>0.0003819018677663993</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1357026666666667</v>
+        <v>0.02946533333333333</v>
       </c>
       <c r="H19">
-        <v>0.407108</v>
+        <v>0.088396</v>
       </c>
       <c r="I19">
-        <v>0.004575208961623179</v>
+        <v>0.0008766457152413409</v>
       </c>
       <c r="J19">
-        <v>0.00457520896162318</v>
+        <v>0.000876645715241341</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.375574333333334</v>
+        <v>10.79259366666667</v>
       </c>
       <c r="N19">
-        <v>16.126723</v>
+        <v>32.377781</v>
       </c>
       <c r="O19">
-        <v>0.01247962836116419</v>
+        <v>0.02607371430982302</v>
       </c>
       <c r="P19">
-        <v>0.01247962836116419</v>
+        <v>0.02607371430982302</v>
       </c>
       <c r="Q19">
-        <v>0.7294797718982222</v>
+        <v>0.3180073699195556</v>
       </c>
       <c r="R19">
-        <v>6.565317947084001</v>
+        <v>2.862066329276</v>
       </c>
       <c r="S19">
-        <v>5.709690751572519E-05</v>
+        <v>2.285740993013319E-05</v>
       </c>
       <c r="T19">
-        <v>5.709690751572519E-05</v>
+        <v>2.285740993013319E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1357026666666667</v>
+        <v>0.02946533333333333</v>
       </c>
       <c r="H20">
-        <v>0.407108</v>
+        <v>0.088396</v>
       </c>
       <c r="I20">
-        <v>0.004575208961623179</v>
+        <v>0.0008766457152413409</v>
       </c>
       <c r="J20">
-        <v>0.00457520896162318</v>
+        <v>0.000876645715241341</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>55.81169166666666</v>
+        <v>53.06048966666666</v>
       </c>
       <c r="N20">
-        <v>167.435075</v>
+        <v>159.181469</v>
       </c>
       <c r="O20">
-        <v>0.129569256607412</v>
+        <v>0.1281882827647747</v>
       </c>
       <c r="P20">
-        <v>0.1295692566074119</v>
+        <v>0.1281882827647747</v>
       </c>
       <c r="Q20">
-        <v>7.573795390344443</v>
+        <v>1.563445014858222</v>
       </c>
       <c r="R20">
-        <v>68.16415851309999</v>
+        <v>14.071005133724</v>
       </c>
       <c r="S20">
-        <v>0.0005928064239810846</v>
+        <v>0.0001123757088298851</v>
       </c>
       <c r="T20">
-        <v>0.0005928064239810846</v>
+        <v>0.0001123757088298852</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1357026666666667</v>
+        <v>0.02946533333333333</v>
       </c>
       <c r="H21">
-        <v>0.407108</v>
+        <v>0.088396</v>
       </c>
       <c r="I21">
-        <v>0.004575208961623179</v>
+        <v>0.0008766457152413409</v>
       </c>
       <c r="J21">
-        <v>0.00457520896162318</v>
+        <v>0.000876645715241341</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.969472333333334</v>
+        <v>13.94831233333333</v>
       </c>
       <c r="N21">
-        <v>26.908417</v>
+        <v>41.844937</v>
       </c>
       <c r="O21">
-        <v>0.02082301803951321</v>
+        <v>0.03369758207489706</v>
       </c>
       <c r="P21">
-        <v>0.02082301803951321</v>
+        <v>0.03369758207489706</v>
       </c>
       <c r="Q21">
-        <v>1.217181314226222</v>
+        <v>0.4109916723391111</v>
       </c>
       <c r="R21">
-        <v>10.954631828036</v>
+        <v>3.698925051052</v>
       </c>
       <c r="S21">
-        <v>9.526965874242196E-05</v>
+        <v>2.954084093995193E-05</v>
       </c>
       <c r="T21">
-        <v>9.526965874242198E-05</v>
+        <v>2.954084093995193E-05</v>
       </c>
     </row>
   </sheetData>
